--- a/SERIEA_FINALSPREAD.xlsx
+++ b/SERIEA_FINALSPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="312">
   <si>
     <t>Div</t>
   </si>
@@ -413,6 +413,36 @@
     <t>50</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>I1</t>
   </si>
   <si>
@@ -515,12 +545,12 @@
     <t>3-2</t>
   </si>
   <si>
+    <t>3-0</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
     <t>3-1</t>
   </si>
   <si>
@@ -638,6 +668,21 @@
     <t>6-2</t>
   </si>
   <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -794,7 +839,34 @@
     <t>Atalanta-Como</t>
   </si>
   <si>
-    <t/>
+    <t>Milan-Lecce</t>
+  </si>
+  <si>
+    <t>Udinese-Inter</t>
+  </si>
+  <si>
+    <t>Genoa-Juventus</t>
+  </si>
+  <si>
+    <t>Bologna-Atalanta</t>
+  </si>
+  <si>
+    <t>Torino-Lazio</t>
+  </si>
+  <si>
+    <t>Como-Verona</t>
+  </si>
+  <si>
+    <t>Roma-Venezia</t>
+  </si>
+  <si>
+    <t>Empoli-Fiorentina</t>
+  </si>
+  <si>
+    <t>Napoli-Monza</t>
+  </si>
+  <si>
+    <t>Parma-Cagliari</t>
   </si>
   <si>
     <t>Matteo Marcenaro</t>
@@ -864,6 +936,18 @@
   </si>
   <si>
     <t>Maurizio Mariani</t>
+  </si>
+  <si>
+    <t>Antonio Rapuano</t>
+  </si>
+  <si>
+    <t>Gianluca Aureliano</t>
+  </si>
+  <si>
+    <t>Gianluca Manganiello</t>
+  </si>
+  <si>
+    <t>Francesco Fourneau</t>
   </si>
 </sst>
 </file>
@@ -1175,16 +1259,16 @@
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
@@ -1193,7 +1277,7 @@
         <v>2.0</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I2" t="n">
         <v>1.0</v>
@@ -1202,7 +1286,7 @@
         <v>1.0</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L2" t="n">
         <v>6.6</v>
@@ -1214,10 +1298,10 @@
         <v>1.55</v>
       </c>
       <c r="O2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q2" t="n">
         <v>10.0</v>
@@ -1265,16 +1349,16 @@
         <v>29.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="AG2" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH2" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI2" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ2" t="n">
         <v>3.0</v>
@@ -1283,10 +1367,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>260</v>
+        <v>225</v>
+      </c>
+      <c r="AM2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN2" t="n">
         <v>222.0</v>
@@ -1429,16 +1513,16 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -1447,7 +1531,7 @@
         <v>1.0</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I3" t="n">
         <v>1.0</v>
@@ -1456,7 +1540,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L3" t="n">
         <v>3.37</v>
@@ -1468,10 +1552,10 @@
         <v>2.25</v>
       </c>
       <c r="O3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>13.0</v>
@@ -1519,16 +1603,16 @@
         <v>24.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="AG3" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH3" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI3" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ3" t="n">
         <v>5.0</v>
@@ -1537,10 +1621,10 @@
         <v>1.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>260</v>
+        <v>226</v>
+      </c>
+      <c r="AM3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN3" t="n">
         <v>97.0</v>
@@ -1683,16 +1767,16 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1701,7 +1785,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1710,7 +1794,7 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L4" t="n">
         <v>2.53</v>
@@ -1722,10 +1806,10 @@
         <v>3.14</v>
       </c>
       <c r="O4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q4" t="n">
         <v>9.0</v>
@@ -1773,16 +1857,16 @@
         <v>35.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AG4" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AH4" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI4" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ4" t="n">
         <v>2.0</v>
@@ -1791,10 +1875,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>260</v>
+        <v>227</v>
+      </c>
+      <c r="AM4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN4" t="n">
         <v>0.0</v>
@@ -1937,16 +2021,16 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F5" t="n">
         <v>2.0</v>
@@ -1955,7 +2039,7 @@
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -1964,7 +2048,7 @@
         <v>1.0</v>
       </c>
       <c r="K5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L5" t="n">
         <v>1.62</v>
@@ -1976,10 +2060,10 @@
         <v>5.76</v>
       </c>
       <c r="O5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q5" t="n">
         <v>20.0</v>
@@ -2027,16 +2111,16 @@
         <v>17.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="AG5" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH5" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI5" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ5" t="n">
         <v>6.0</v>
@@ -2045,10 +2129,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>260</v>
+        <v>228</v>
+      </c>
+      <c r="AM5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN5" t="n">
         <v>277.0</v>
@@ -2191,16 +2275,16 @@
         <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -2209,7 +2293,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -2218,7 +2302,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L6" t="n">
         <v>1.95</v>
@@ -2230,10 +2314,10 @@
         <v>4.57</v>
       </c>
       <c r="O6" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q6" t="n">
         <v>22.0</v>
@@ -2281,16 +2365,16 @@
         <v>28.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AG6" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH6" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI6" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ6" t="n">
         <v>4.0</v>
@@ -2299,10 +2383,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>260</v>
+        <v>229</v>
+      </c>
+      <c r="AM6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN6" t="n">
         <v>125.0</v>
@@ -2445,16 +2529,16 @@
         <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F7" t="n">
         <v>3.0</v>
@@ -2463,7 +2547,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2472,7 +2556,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L7" t="n">
         <v>4.99</v>
@@ -2484,10 +2568,10 @@
         <v>1.78</v>
       </c>
       <c r="O7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q7" t="n">
         <v>8.0</v>
@@ -2535,16 +2619,16 @@
         <v>28.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AG7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ7" t="n">
         <v>5.0</v>
@@ -2553,10 +2637,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>215</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>260</v>
+        <v>230</v>
+      </c>
+      <c r="AM7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN7" t="n">
         <v>215.0</v>
@@ -2699,16 +2783,16 @@
         <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -2717,7 +2801,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2726,7 +2810,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L8" t="n">
         <v>4.04</v>
@@ -2738,10 +2822,10 @@
         <v>1.99</v>
       </c>
       <c r="O8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q8" t="n">
         <v>12.0</v>
@@ -2789,16 +2873,16 @@
         <v>22.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AG8" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AH8" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI8" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ8" t="n">
         <v>2.0</v>
@@ -2807,10 +2891,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>260</v>
+        <v>231</v>
+      </c>
+      <c r="AM8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN8" t="n">
         <v>0.0</v>
@@ -2953,16 +3037,16 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -2971,7 +3055,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I9" t="n">
         <v>2.0</v>
@@ -2980,7 +3064,7 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L9" t="n">
         <v>1.48</v>
@@ -2992,10 +3076,10 @@
         <v>7.29</v>
       </c>
       <c r="O9" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q9" t="n">
         <v>13.0</v>
@@ -3043,16 +3127,16 @@
         <v>25.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AG9" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH9" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI9" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ9" t="n">
         <v>3.0</v>
@@ -3061,10 +3145,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>260</v>
+        <v>232</v>
+      </c>
+      <c r="AM9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN9" t="n">
         <v>139.0</v>
@@ -3207,16 +3291,16 @@
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45523.0</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -3225,7 +3309,7 @@
         <v>4.0</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -3234,7 +3318,7 @@
         <v>2.0</v>
       </c>
       <c r="K10" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L10" t="n">
         <v>4.44</v>
@@ -3246,10 +3330,10 @@
         <v>1.88</v>
       </c>
       <c r="O10" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q10" t="n">
         <v>19.0</v>
@@ -3297,16 +3381,16 @@
         <v>34.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AG10" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH10" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI10" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ10" t="n">
         <v>2.0</v>
@@ -3315,10 +3399,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>260</v>
+        <v>233</v>
+      </c>
+      <c r="AM10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN10" t="n">
         <v>203.0</v>
@@ -3461,16 +3545,16 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45523.0</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F11" t="n">
         <v>3.0</v>
@@ -3479,7 +3563,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I11" t="n">
         <v>2.0</v>
@@ -3488,7 +3572,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L11" t="n">
         <v>1.34</v>
@@ -3500,10 +3584,10 @@
         <v>9.8</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q11" t="n">
         <v>12.0</v>
@@ -3551,16 +3635,16 @@
         <v>18.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AG11" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH11" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI11" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ11" t="n">
         <v>6.0</v>
@@ -3569,10 +3653,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>260</v>
+        <v>234</v>
+      </c>
+      <c r="AM11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN11" t="n">
         <v>158.0</v>
@@ -3715,16 +3799,16 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F12" t="n">
         <v>2.0</v>
@@ -3733,7 +3817,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I12" t="n">
         <v>1.0</v>
@@ -3742,7 +3826,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L12" t="n">
         <v>4.9</v>
@@ -3754,10 +3838,10 @@
         <v>1.69</v>
       </c>
       <c r="O12" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q12" t="n">
         <v>8.0</v>
@@ -3805,16 +3889,16 @@
         <v>22.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AG12" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH12" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI12" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ12" t="n">
         <v>3.0</v>
@@ -3823,10 +3907,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>260</v>
+        <v>235</v>
+      </c>
+      <c r="AM12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN12" t="n">
         <v>145.0</v>
@@ -3969,16 +4053,16 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F13" t="n">
         <v>2.0</v>
@@ -3987,7 +4071,7 @@
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
@@ -3996,7 +4080,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L13" t="n">
         <v>3.38</v>
@@ -4008,10 +4092,10 @@
         <v>2.4</v>
       </c>
       <c r="O13" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q13" t="n">
         <v>8.0</v>
@@ -4059,16 +4143,16 @@
         <v>25.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="AG13" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH13" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI13" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ13" t="n">
         <v>0.0</v>
@@ -4077,10 +4161,10 @@
         <v>1.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>260</v>
+        <v>236</v>
+      </c>
+      <c r="AM13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN13" t="n">
         <v>144.0</v>
@@ -4223,16 +4307,16 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -4241,7 +4325,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I14" t="n">
         <v>1.0</v>
@@ -4250,7 +4334,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L14" t="n">
         <v>1.2</v>
@@ -4262,10 +4346,10 @@
         <v>15.07</v>
       </c>
       <c r="O14" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q14" t="n">
         <v>11.0</v>
@@ -4313,16 +4397,16 @@
         <v>21.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AG14" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH14" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI14" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ14" t="n">
         <v>2.0</v>
@@ -4331,10 +4415,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>260</v>
+        <v>237</v>
+      </c>
+      <c r="AM14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN14" t="n">
         <v>74.0</v>
@@ -4477,16 +4561,16 @@
         <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
@@ -4495,7 +4579,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
@@ -4504,7 +4588,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L15" t="n">
         <v>2.68</v>
@@ -4516,10 +4600,10 @@
         <v>2.96</v>
       </c>
       <c r="O15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q15" t="n">
         <v>9.0</v>
@@ -4567,16 +4651,16 @@
         <v>23.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AG15" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AH15" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI15" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ15" t="n">
         <v>5.0</v>
@@ -4585,10 +4669,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>260</v>
+        <v>238</v>
+      </c>
+      <c r="AM15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN15" t="n">
         <v>45.0</v>
@@ -4731,16 +4815,16 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -4749,7 +4833,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -4758,7 +4842,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L16" t="n">
         <v>1.44</v>
@@ -4770,10 +4854,10 @@
         <v>7.64</v>
       </c>
       <c r="O16" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q16" t="n">
         <v>12.0</v>
@@ -4821,16 +4905,16 @@
         <v>32.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AH16" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI16" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ16" t="n">
         <v>3.0</v>
@@ -4839,10 +4923,10 @@
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>260</v>
+        <v>239</v>
+      </c>
+      <c r="AM16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN16" t="n">
         <v>0.0</v>
@@ -4985,16 +5069,16 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F17" t="n">
         <v>2.0</v>
@@ -5003,7 +5087,7 @@
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I17" t="n">
         <v>1.0</v>
@@ -5012,7 +5096,7 @@
         <v>1.0</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L17" t="n">
         <v>3.32</v>
@@ -5024,10 +5108,10 @@
         <v>2.35</v>
       </c>
       <c r="O17" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q17" t="n">
         <v>13.0</v>
@@ -5075,16 +5159,16 @@
         <v>21.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH17" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI17" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ17" t="n">
         <v>7.0</v>
@@ -5093,10 +5177,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>225</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>260</v>
+        <v>240</v>
+      </c>
+      <c r="AM17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN17" t="n">
         <v>106.0</v>
@@ -5239,16 +5323,16 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F18" t="n">
         <v>3.0</v>
@@ -5257,7 +5341,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
@@ -5266,7 +5350,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L18" t="n">
         <v>1.94</v>
@@ -5278,10 +5362,10 @@
         <v>4.11</v>
       </c>
       <c r="O18" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q18" t="n">
         <v>16.0</v>
@@ -5329,16 +5413,16 @@
         <v>28.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH18" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI18" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ18" t="n">
         <v>4.0</v>
@@ -5347,10 +5431,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>226</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>260</v>
+        <v>241</v>
+      </c>
+      <c r="AM18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN18" t="n">
         <v>210.0</v>
@@ -5493,16 +5577,16 @@
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F19" t="n">
         <v>1.0</v>
@@ -5511,7 +5595,7 @@
         <v>2.0</v>
       </c>
       <c r="H19" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -5520,7 +5604,7 @@
         <v>1.0</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L19" t="n">
         <v>1.5</v>
@@ -5532,10 +5616,10 @@
         <v>6.8</v>
       </c>
       <c r="O19" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q19" t="n">
         <v>17.0</v>
@@ -5583,16 +5667,16 @@
         <v>19.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH19" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI19" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ19" t="n">
         <v>3.0</v>
@@ -5601,10 +5685,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>227</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>260</v>
+        <v>242</v>
+      </c>
+      <c r="AM19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN19" t="n">
         <v>186.0</v>
@@ -5747,16 +5831,16 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45530.0</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F20" t="n">
         <v>1.0</v>
@@ -5765,7 +5849,7 @@
         <v>1.0</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
@@ -5774,7 +5858,7 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L20" t="n">
         <v>2.13</v>
@@ -5786,10 +5870,10 @@
         <v>3.66</v>
       </c>
       <c r="O20" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q20" t="n">
         <v>11.0</v>
@@ -5837,16 +5921,16 @@
         <v>22.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH20" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI20" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ20" t="n">
         <v>4.0</v>
@@ -5855,10 +5939,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>260</v>
+        <v>243</v>
+      </c>
+      <c r="AM20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN20" t="n">
         <v>97.0</v>
@@ -6001,16 +6085,16 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45530.0</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -6019,7 +6103,7 @@
         <v>3.0</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -6028,7 +6112,7 @@
         <v>2.0</v>
       </c>
       <c r="K21" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L21" t="n">
         <v>5.23</v>
@@ -6040,10 +6124,10 @@
         <v>1.72</v>
       </c>
       <c r="O21" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q21" t="n">
         <v>7.0</v>
@@ -6091,16 +6175,16 @@
         <v>16.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH21" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI21" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ21" t="n">
         <v>2.0</v>
@@ -6109,10 +6193,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>260</v>
+        <v>244</v>
+      </c>
+      <c r="AM21" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN21" t="n">
         <v>120.0</v>
@@ -6255,16 +6339,16 @@
         <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -6273,7 +6357,7 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -6282,7 +6366,7 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L22" t="n">
         <v>3.63</v>
@@ -6294,10 +6378,10 @@
         <v>2.23</v>
       </c>
       <c r="O22" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q22" t="n">
         <v>13.0</v>
@@ -6345,16 +6429,16 @@
         <v>22.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AH22" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI22" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ22" t="n">
         <v>6.0</v>
@@ -6363,10 +6447,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="AM22" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="AN22" t="n">
         <v>86.0</v>
@@ -6509,16 +6593,16 @@
         <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F23" t="n">
         <v>4.0</v>
@@ -6527,7 +6611,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I23" t="n">
         <v>2.0</v>
@@ -6536,7 +6620,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L23" t="n">
         <v>1.58</v>
@@ -6548,10 +6632,10 @@
         <v>5.79</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q23" t="n">
         <v>13.0</v>
@@ -6599,16 +6683,16 @@
         <v>21.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG23" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH23" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI23" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ23" t="n">
         <v>2.0</v>
@@ -6617,10 +6701,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="AN23" t="n">
         <v>116.0</v>
@@ -6763,16 +6847,16 @@
         <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
@@ -6781,7 +6865,7 @@
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I24" t="n">
         <v>1.0</v>
@@ -6790,7 +6874,7 @@
         <v>1.0</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L24" t="n">
         <v>1.66</v>
@@ -6802,10 +6886,10 @@
         <v>5.89</v>
       </c>
       <c r="O24" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q24" t="n">
         <v>14.0</v>
@@ -6853,16 +6937,16 @@
         <v>33.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AG24" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH24" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI24" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ24" t="n">
         <v>3.0</v>
@@ -6871,10 +6955,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="AN24" t="n">
         <v>5.0</v>
@@ -7017,16 +7101,16 @@
         <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -7035,7 +7119,7 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I25" t="n">
         <v>1.0</v>
@@ -7044,7 +7128,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L25" t="n">
         <v>2.33</v>
@@ -7056,10 +7140,10 @@
         <v>3.45</v>
       </c>
       <c r="O25" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q25" t="n">
         <v>17.0</v>
@@ -7107,16 +7191,16 @@
         <v>23.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AG25" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AH25" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI25" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ25" t="n">
         <v>4.0</v>
@@ -7125,10 +7209,10 @@
         <v>1.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="AN25" t="n">
         <v>26.0</v>
@@ -7271,16 +7355,16 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F26" t="n">
         <v>2.0</v>
@@ -7289,7 +7373,7 @@
         <v>2.0</v>
       </c>
       <c r="H26" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -7298,7 +7382,7 @@
         <v>1.0</v>
       </c>
       <c r="K26" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L26" t="n">
         <v>2.97</v>
@@ -7310,10 +7394,10 @@
         <v>2.46</v>
       </c>
       <c r="O26" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q26" t="n">
         <v>7.0</v>
@@ -7361,16 +7445,16 @@
         <v>21.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="AG26" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH26" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI26" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ26" t="n">
         <v>6.0</v>
@@ -7379,10 +7463,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="AN26" t="n">
         <v>208.0</v>
@@ -7525,16 +7609,16 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -7543,7 +7627,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -7552,7 +7636,7 @@
         <v>1.0</v>
       </c>
       <c r="K27" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L27" t="n">
         <v>1.5</v>
@@ -7564,10 +7648,10 @@
         <v>6.48</v>
       </c>
       <c r="O27" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q27" t="n">
         <v>29.0</v>
@@ -7615,16 +7699,16 @@
         <v>18.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AG27" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH27" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI27" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ27" t="n">
         <v>6.0</v>
@@ -7633,10 +7717,10 @@
         <v>1.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="AM27" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="n">
         <v>199.0</v>
@@ -7779,16 +7863,16 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F28" t="n">
         <v>2.0</v>
@@ -7797,7 +7881,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -7806,7 +7890,7 @@
         <v>2.0</v>
       </c>
       <c r="K28" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L28" t="n">
         <v>1.7</v>
@@ -7818,10 +7902,10 @@
         <v>5.24</v>
       </c>
       <c r="O28" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q28" t="n">
         <v>15.0</v>
@@ -7869,16 +7953,16 @@
         <v>32.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AG28" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH28" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI28" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ28" t="n">
         <v>6.0</v>
@@ -7887,10 +7971,10 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="AM28" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="n">
         <v>185.0</v>
@@ -8033,16 +8117,16 @@
         <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
@@ -8051,7 +8135,7 @@
         <v>2.0</v>
       </c>
       <c r="H29" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -8060,7 +8144,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L29" t="n">
         <v>2.02</v>
@@ -8072,10 +8156,10 @@
         <v>4.25</v>
       </c>
       <c r="O29" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q29" t="n">
         <v>11.0</v>
@@ -8123,16 +8207,16 @@
         <v>24.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AG29" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH29" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI29" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.0</v>
@@ -8141,10 +8225,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="AM29" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="n">
         <v>119.0</v>
@@ -8287,16 +8371,16 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -8305,7 +8389,7 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -8314,7 +8398,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L30" t="n">
         <v>1.76</v>
@@ -8326,10 +8410,10 @@
         <v>5.02</v>
       </c>
       <c r="O30" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q30" t="n">
         <v>8.0</v>
@@ -8377,16 +8461,16 @@
         <v>23.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AG30" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AH30" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI30" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ30" t="n">
         <v>4.0</v>
@@ -8395,10 +8479,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="AM30" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="AN30" t="n">
         <v>0.0</v>
@@ -8541,16 +8625,16 @@
         <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F31" t="n">
         <v>1.0</v>
@@ -8559,7 +8643,7 @@
         <v>0.0</v>
       </c>
       <c r="H31" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I31" t="n">
         <v>1.0</v>
@@ -8568,7 +8652,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L31" t="n">
         <v>2.07</v>
@@ -8580,10 +8664,10 @@
         <v>3.89</v>
       </c>
       <c r="O31" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q31" t="n">
         <v>10.0</v>
@@ -8631,16 +8715,16 @@
         <v>25.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AG31" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AH31" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI31" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ31" t="n">
         <v>3.0</v>
@@ -8649,10 +8733,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="AM31" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="AN31" t="n">
         <v>43.0</v>
@@ -8795,16 +8879,16 @@
         <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F32" t="n">
         <v>2.0</v>
@@ -8813,7 +8897,7 @@
         <v>2.0</v>
       </c>
       <c r="H32" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
@@ -8822,7 +8906,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L32" t="n">
         <v>3.03</v>
@@ -8834,10 +8918,10 @@
         <v>2.57</v>
       </c>
       <c r="O32" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q32" t="n">
         <v>14.0</v>
@@ -8885,16 +8969,16 @@
         <v>29.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AG32" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH32" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI32" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ32" t="n">
         <v>3.0</v>
@@ -8903,10 +8987,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="AM32" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="AN32" t="n">
         <v>134.0</v>
@@ -9049,16 +9133,16 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -9067,7 +9151,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -9076,7 +9160,7 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L33" t="n">
         <v>5.54</v>
@@ -9088,10 +9172,10 @@
         <v>1.7</v>
       </c>
       <c r="O33" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q33" t="n">
         <v>8.0</v>
@@ -9139,16 +9223,16 @@
         <v>21.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AG33" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AH33" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI33" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ33" t="n">
         <v>3.0</v>
@@ -9157,10 +9241,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="AM33" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="AN33" t="n">
         <v>0.0</v>
@@ -9303,16 +9387,16 @@
         <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F34" t="n">
         <v>4.0</v>
@@ -9321,7 +9405,7 @@
         <v>0.0</v>
       </c>
       <c r="H34" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I34" t="n">
         <v>4.0</v>
@@ -9330,7 +9414,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L34" t="n">
         <v>1.3</v>
@@ -9342,10 +9426,10 @@
         <v>9.65</v>
       </c>
       <c r="O34" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q34" t="n">
         <v>12.0</v>
@@ -9393,16 +9477,16 @@
         <v>24.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="AG34" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH34" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI34" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ34" t="n">
         <v>4.0</v>
@@ -9411,10 +9495,10 @@
         <v>1.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="AM34" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="AN34" t="n">
         <v>72.0</v>
@@ -9557,16 +9641,16 @@
         <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -9575,7 +9659,7 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -9584,7 +9668,7 @@
         <v>1.0</v>
       </c>
       <c r="K35" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L35" t="n">
         <v>3.37</v>
@@ -9596,10 +9680,10 @@
         <v>2.29</v>
       </c>
       <c r="O35" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q35" t="n">
         <v>20.0</v>
@@ -9647,16 +9731,16 @@
         <v>21.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="AG35" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH35" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI35" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ35" t="n">
         <v>4.0</v>
@@ -9665,10 +9749,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="AM35" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="AN35" t="n">
         <v>127.0</v>
@@ -9811,16 +9895,16 @@
         <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F36" t="n">
         <v>3.0</v>
@@ -9829,7 +9913,7 @@
         <v>2.0</v>
       </c>
       <c r="H36" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I36" t="n">
         <v>3.0</v>
@@ -9838,7 +9922,7 @@
         <v>2.0</v>
       </c>
       <c r="K36" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L36" t="n">
         <v>1.83</v>
@@ -9850,10 +9934,10 @@
         <v>4.29</v>
       </c>
       <c r="O36" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q36" t="n">
         <v>13.0</v>
@@ -9901,16 +9985,16 @@
         <v>31.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="AG36" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH36" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI36" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ36" t="n">
         <v>5.0</v>
@@ -9919,10 +10003,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="AM36" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="AN36" t="n">
         <v>158.0</v>
@@ -10065,16 +10149,16 @@
         <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -10083,7 +10167,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -10092,7 +10176,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L37" t="n">
         <v>1.84</v>
@@ -10104,10 +10188,10 @@
         <v>5.07</v>
       </c>
       <c r="O37" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q37" t="n">
         <v>5.0</v>
@@ -10155,16 +10239,16 @@
         <v>26.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AG37" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AH37" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI37" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ37" t="n">
         <v>4.0</v>
@@ -10173,10 +10257,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="AM37" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="AN37" t="n">
         <v>0.0</v>
@@ -10319,16 +10403,16 @@
         <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -10337,7 +10421,7 @@
         <v>4.0</v>
       </c>
       <c r="H38" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -10346,7 +10430,7 @@
         <v>1.0</v>
       </c>
       <c r="K38" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L38" t="n">
         <v>4.43</v>
@@ -10358,10 +10442,10 @@
         <v>1.83</v>
       </c>
       <c r="O38" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q38" t="n">
         <v>16.0</v>
@@ -10409,16 +10493,16 @@
         <v>33.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="AG38" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH38" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI38" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ38" t="n">
         <v>3.0</v>
@@ -10427,10 +10511,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="AM38" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="AN38" t="n">
         <v>244.0</v>
@@ -10573,16 +10657,16 @@
         <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F39" t="n">
         <v>1.0</v>
@@ -10591,7 +10675,7 @@
         <v>1.0</v>
       </c>
       <c r="H39" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -10600,7 +10684,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L39" t="n">
         <v>7.58</v>
@@ -10612,10 +10696,10 @@
         <v>1.41</v>
       </c>
       <c r="O39" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q39" t="n">
         <v>5.0</v>
@@ -10663,16 +10747,16 @@
         <v>30.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="AG39" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH39" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI39" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ39" t="n">
         <v>3.0</v>
@@ -10681,10 +10765,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="AM39" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="AN39" t="n">
         <v>169.0</v>
@@ -10827,16 +10911,16 @@
         <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45551.0</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F40" t="n">
         <v>2.0</v>
@@ -10845,7 +10929,7 @@
         <v>3.0</v>
       </c>
       <c r="H40" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I40" t="n">
         <v>2.0</v>
@@ -10854,7 +10938,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L40" t="n">
         <v>2.29</v>
@@ -10866,10 +10950,10 @@
         <v>3.29</v>
       </c>
       <c r="O40" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q40" t="n">
         <v>9.0</v>
@@ -10917,16 +11001,16 @@
         <v>26.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AG40" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH40" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI40" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ40" t="n">
         <v>5.0</v>
@@ -10935,10 +11019,10 @@
         <v>1.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="AM40" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="AN40" t="n">
         <v>239.0</v>
@@ -11081,16 +11165,16 @@
         <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45551.0</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F41" t="n">
         <v>2.0</v>
@@ -11099,7 +11183,7 @@
         <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I41" t="n">
         <v>2.0</v>
@@ -11108,7 +11192,7 @@
         <v>1.0</v>
       </c>
       <c r="K41" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L41" t="n">
         <v>1.62</v>
@@ -11120,10 +11204,10 @@
         <v>5.78</v>
       </c>
       <c r="O41" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q41" t="n">
         <v>14.0</v>
@@ -11171,16 +11255,16 @@
         <v>23.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AG41" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH41" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI41" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ41" t="n">
         <v>4.0</v>
@@ -11189,10 +11273,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="AM41" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="AN41" t="n">
         <v>32.0</v>
@@ -11335,16 +11419,16 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -11353,7 +11437,7 @@
         <v>2.0</v>
       </c>
       <c r="H42" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -11362,7 +11446,7 @@
         <v>1.0</v>
       </c>
       <c r="K42" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L42" t="n">
         <v>2.17</v>
@@ -11374,10 +11458,10 @@
         <v>3.72</v>
       </c>
       <c r="O42" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q42" t="n">
         <v>21.0</v>
@@ -11425,16 +11509,16 @@
         <v>36.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AG42" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH42" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI42" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ42" t="n">
         <v>3.0</v>
@@ -11443,10 +11527,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="AM42" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="AN42" t="n">
         <v>82.0</v>
@@ -11589,16 +11673,16 @@
         <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F43" t="n">
         <v>2.0</v>
@@ -11607,7 +11691,7 @@
         <v>3.0</v>
       </c>
       <c r="H43" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -11616,7 +11700,7 @@
         <v>2.0</v>
       </c>
       <c r="K43" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L43" t="n">
         <v>2.85</v>
@@ -11628,10 +11712,10 @@
         <v>2.9</v>
       </c>
       <c r="O43" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q43" t="n">
         <v>8.0</v>
@@ -11679,16 +11763,16 @@
         <v>18.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AG43" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH43" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI43" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ43" t="n">
         <v>4.0</v>
@@ -11697,10 +11781,10 @@
         <v>1.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="AM43" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="AN43" t="n">
         <v>224.0</v>
@@ -11843,16 +11927,16 @@
         <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F44" t="n">
         <v>2.0</v>
@@ -11861,7 +11945,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
@@ -11870,7 +11954,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L44" t="n">
         <v>3.24</v>
@@ -11882,10 +11966,10 @@
         <v>2.39</v>
       </c>
       <c r="O44" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q44" t="n">
         <v>12.0</v>
@@ -11933,16 +12017,16 @@
         <v>21.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG44" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH44" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI44" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ44" t="n">
         <v>5.0</v>
@@ -11951,10 +12035,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="AM44" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="AN44" t="n">
         <v>148.0</v>
@@ -12097,16 +12181,16 @@
         <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -12115,7 +12199,7 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -12124,7 +12208,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L45" t="n">
         <v>2.26</v>
@@ -12136,10 +12220,10 @@
         <v>3.49</v>
       </c>
       <c r="O45" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q45" t="n">
         <v>9.0</v>
@@ -12187,16 +12271,16 @@
         <v>23.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AG45" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AH45" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AI45" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ45" t="n">
         <v>1.0</v>
@@ -12205,10 +12289,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="AM45" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="AN45" t="n">
         <v>0.0</v>
@@ -12351,16 +12435,16 @@
         <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F46" t="n">
         <v>2.0</v>
@@ -12369,7 +12453,7 @@
         <v>2.0</v>
       </c>
       <c r="H46" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="I46" t="n">
         <v>1.0</v>
@@ -12378,7 +12462,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L46" t="n">
         <v>2.22</v>
@@ -12390,10 +12474,10 @@
         <v>3.39</v>
       </c>
       <c r="O46" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q46" t="n">
         <v>14.0</v>
@@ -12441,16 +12525,16 @@
         <v>23.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AG46" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH46" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI46" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ46" t="n">
         <v>4.0</v>
@@ -12459,10 +12543,10 @@
         <v>2.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="AM46" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="AN46" t="n">
         <v>271.0</v>
@@ -12605,16 +12689,16 @@
         <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F47" t="n">
         <v>2.0</v>
@@ -12623,7 +12707,7 @@
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
@@ -12632,7 +12716,7 @@
         <v>1.0</v>
       </c>
       <c r="K47" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L47" t="n">
         <v>2.32</v>
@@ -12644,10 +12728,10 @@
         <v>3.23</v>
       </c>
       <c r="O47" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q47" t="n">
         <v>14.0</v>
@@ -12695,16 +12779,16 @@
         <v>26.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AG47" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH47" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI47" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ47" t="n">
         <v>7.0</v>
@@ -12713,10 +12797,10 @@
         <v>0.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="AM47" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="AN47" t="n">
         <v>180.0</v>
@@ -12859,16 +12943,16 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F48" t="n">
         <v>1.0</v>
@@ -12877,7 +12961,7 @@
         <v>2.0</v>
       </c>
       <c r="H48" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I48" t="n">
         <v>1.0</v>
@@ -12886,7 +12970,7 @@
         <v>1.0</v>
       </c>
       <c r="K48" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L48" t="n">
         <v>3.21</v>
@@ -12898,10 +12982,10 @@
         <v>2.43</v>
       </c>
       <c r="O48" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q48" t="n">
         <v>6.0</v>
@@ -12949,16 +13033,16 @@
         <v>36.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="AG48" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH48" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI48" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ48" t="n">
         <v>5.0</v>
@@ -12967,10 +13051,10 @@
         <v>0.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="AM48" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="AN48" t="n">
         <v>147.0</v>
@@ -13113,16 +13197,16 @@
         <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F49" t="n">
         <v>3.0</v>
@@ -13131,7 +13215,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I49" t="n">
         <v>1.0</v>
@@ -13140,7 +13224,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L49" t="n">
         <v>1.63</v>
@@ -13152,10 +13236,10 @@
         <v>5.59</v>
       </c>
       <c r="O49" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q49" t="n">
         <v>14.0</v>
@@ -13203,16 +13287,16 @@
         <v>26.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AG49" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH49" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI49" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ49" t="n">
         <v>4.0</v>
@@ -13221,10 +13305,10 @@
         <v>0.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="AM49" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="AN49" t="n">
         <v>138.0</v>
@@ -13367,16 +13451,16 @@
         <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F50" t="n">
         <v>1.0</v>
@@ -13385,7 +13469,7 @@
         <v>2.0</v>
       </c>
       <c r="H50" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I50" t="n">
         <v>1.0</v>
@@ -13394,7 +13478,7 @@
         <v>1.0</v>
       </c>
       <c r="K50" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L50" t="n">
         <v>1.66</v>
@@ -13406,10 +13490,10 @@
         <v>5.25</v>
       </c>
       <c r="O50" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q50" t="n">
         <v>13.0</v>
@@ -13457,16 +13541,16 @@
         <v>17.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AG50" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH50" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI50" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AJ50" t="n">
         <v>5.0</v>
@@ -13475,10 +13559,10 @@
         <v>0.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="AM50" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="AN50" t="n">
         <v>126.0</v>
@@ -13621,16 +13705,16 @@
         <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45559.0</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -13639,7 +13723,7 @@
         <v>3.0</v>
       </c>
       <c r="H51" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I51" t="n">
         <v>1.0</v>
@@ -13648,7 +13732,7 @@
         <v>0.0</v>
       </c>
       <c r="K51" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L51" t="n">
         <v>1.5</v>
@@ -13660,10 +13744,10 @@
         <v>6.4</v>
       </c>
       <c r="O51" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q51" t="n">
         <v>8.0</v>
@@ -13711,16 +13795,16 @@
         <v>29.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AG51" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH51" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AI51" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AJ51" t="n">
         <v>4.0</v>
@@ -13729,10 +13813,10 @@
         <v>0.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="AM51" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="AN51" t="n">
         <v>266.0</v>
@@ -13777,7 +13861,7 @@
         <v>1.6</v>
       </c>
       <c r="BB51" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="BC51" t="n">
         <v>18.0</v>
@@ -13868,6 +13952,2546 @@
       </c>
       <c r="CF51" t="n">
         <v>129.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="n" s="2">
+        <v>45562.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>165</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>165</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="N52" t="n">
+        <v>9.55</v>
+      </c>
+      <c r="O52" t="s">
+        <v>177</v>
+      </c>
+      <c r="P52" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>495.0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1665.0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>407.0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>1342.0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>1485.0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="CB52" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CC52" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CD52" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CE52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>166</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>166</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O53" t="s">
+        <v>174</v>
+      </c>
+      <c r="P53" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>2110.0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CB53" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CC53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD53" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CE53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>164</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O54" t="s">
+        <v>169</v>
+      </c>
+      <c r="P54" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>1536.0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="BZ54" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="CB54" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CC54" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CD54" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CE54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>94.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>164</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>164</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O55" t="s">
+        <v>169</v>
+      </c>
+      <c r="P55" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1650.0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>935.0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>2805.0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>1496.0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>1870.0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BT55" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="CB55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC55" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="CD55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>166</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>166</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O56" t="s">
+        <v>170</v>
+      </c>
+      <c r="P56" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>4100.0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>1256.0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="CB56" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CC56" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CD56" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CE56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>165</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>165</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O57" t="s">
+        <v>168</v>
+      </c>
+      <c r="P57" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>950.0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>4370.0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>3470.0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>4750.0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="CB57" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="CC57" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="CD57" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="CE57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>165</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>166</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="N58" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="O58" t="s">
+        <v>170</v>
+      </c>
+      <c r="P58" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>2550.0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>765.0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>1818.0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>810.0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="CB58" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="CC58" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CD58" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CE58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF58" t="n">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>164</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>164</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O59" t="s">
+        <v>169</v>
+      </c>
+      <c r="P59" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="CB59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC59" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="CD59" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="CE59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>165</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>165</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="N60" t="n">
+        <v>9.29</v>
+      </c>
+      <c r="O60" t="s">
+        <v>173</v>
+      </c>
+      <c r="P60" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>2940.0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="CB60" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CC60" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CD60" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CE60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="n" s="2">
+        <v>45565.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>166</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O61" t="s">
+        <v>170</v>
+      </c>
+      <c r="P61" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>12650.0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>1265.0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>2760.0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="CB61" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CC61" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CD61" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CE61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>134.0</v>
       </c>
     </row>
   </sheetData>
